--- a/src/main/resources/menRevolveCoat.xlsx
+++ b/src/main/resources/menRevolveCoat.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="220">
   <si>
     <t>Id</t>
   </si>
@@ -44,13 +44,31 @@
     <t>Beverly Hills Oversized Blazer</t>
   </si>
   <si>
+    <t>CA$ 267.35</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-beverly-hills-oversized-blazer-in-midnight/dp/BEVR-WO2/?d=Mens&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_2</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MO21_V1.jpg</t>
+  </si>
+  <si>
+    <t>Polo Ralph Lauren</t>
+  </si>
+  <si>
+    <t>Bi-Swing Windbreaker Jacket</t>
+  </si>
+  <si>
     <t>CA$ 453.54</t>
   </si>
   <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-beverly-hills-oversized-blazer-in-midnight/dp/BEVR-WO2/?d=Mens&amp;page=1&amp;lc=1&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_2</t>
+    <t>https://www.revolve.com/polo-ralph-lauren-biswing-windbreaker-jacket-in-khaki-uniform/dp/PLAU-MO21/?d=Mens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_3</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WO1M_V1.jpg</t>
@@ -62,10 +80,10 @@
     <t>CA$ 1,323.87</t>
   </si>
   <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-varsity-bomber-in-black-white/dp/BEVR-WO1/?d=Mens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_3</t>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-varsity-bomber-in-black-white/dp/BEVR-WO1/?d=Mens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_4</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WO4M_V1.jpg</t>
@@ -77,10 +95,10 @@
     <t>CA$ 198.92</t>
   </si>
   <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-beverly-hills-reversible-track-jacket-in-multi/dp/BEVR-WO4/?d=Mens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_4</t>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-beverly-hills-reversible-track-jacket-in-multi/dp/BEVR-WO4/?d=Mens&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_5</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NKAM-WO112M_V1.jpg</t>
@@ -95,10 +113,10 @@
     <t>CA$ 3,158.86</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-oversized-double-breasted-jacket-in-black/dp/NKAM-WO112/?d=Mens&amp;page=1&amp;lc=4&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_5</t>
+    <t>https://www.revolve.com/norma-kamali-oversized-double-breasted-jacket-in-black/dp/NKAM-WO112/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_6</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MO153_V1.jpg</t>
@@ -113,10 +131,10 @@
     <t>CA$ 437.63</t>
   </si>
   <si>
-    <t>https://www.revolve.com/offwhite-tyre-moon-lea-varsity-jacket-in-black/dp/OFFF-MO153/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_6</t>
+    <t>https://www.revolve.com/offwhite-tyre-moon-lea-varsity-jacket-in-black/dp/OFFF-MO153/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_7</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/WIME-MO3M_V1.jpg</t>
@@ -131,10 +149,10 @@
     <t>CA$ 799.51</t>
   </si>
   <si>
-    <t>https://www.revolve.com/wish-me-luck-cropped-league-bomber-jacket-in-brown/dp/WIME-MO3/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_7</t>
+    <t>https://www.revolve.com/wish-me-luck-cropped-league-bomber-jacket-in-brown/dp/WIME-MO3/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_8</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/SCHF-MO32_V1.jpg</t>
@@ -149,10 +167,10 @@
     <t>CA$ 358.36</t>
   </si>
   <si>
-    <t>https://www.revolve.com/schott-waxed-natural-pebbled-cowhide-cafe-leather-jacket-in-black/dp/SCHF-MO32/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_8</t>
+    <t>https://www.revolve.com/schott-waxed-natural-pebbled-cowhide-cafe-leather-jacket-in-black/dp/SCHF-MO32/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_9</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ALPF-MO35M_V1.jpg</t>
@@ -167,10 +185,10 @@
     <t>CA$ 1,265.14</t>
   </si>
   <si>
-    <t>https://www.revolve.com/alpha-industries-als92-liner-in-black/dp/ALPF-MO35/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_9</t>
+    <t>https://www.revolve.com/alpha-industries-als92-liner-in-black/dp/ALPF-MO35/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_10</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MO157_V1.jpg</t>
@@ -179,10 +197,10 @@
     <t>CA$ 362.84</t>
   </si>
   <si>
-    <t>https://www.revolve.com/offwhite-varsity-bomber-in-black-white/dp/OFFF-MO157/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_10</t>
+    <t>https://www.revolve.com/offwhite-varsity-bomber-in-black-white/dp/OFFF-MO157/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_11</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/WIME-MO1M_V1.jpg</t>
@@ -194,10 +212,10 @@
     <t>CA$ 122.29</t>
   </si>
   <si>
-    <t>https://www.revolve.com/wish-me-luck-studded-denim-jacket-in-denim/dp/WIME-MO1/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_11</t>
+    <t>https://www.revolve.com/wish-me-luck-studded-denim-jacket-in-denim/dp/WIME-MO1/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_12</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MS257_V1.jpg</t>
@@ -212,10 +230,10 @@
     <t>CA$ 318.27</t>
   </si>
   <si>
-    <t>https://www.revolve.com/allsaints-ethan-shirt-in-black/dp/ALLR-MS257/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_12</t>
+    <t>https://www.revolve.com/allsaints-ethan-shirt-in-black/dp/ALLR-MS257/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_13</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ALPF-MO2M_V1.jpg</t>
@@ -227,10 +245,10 @@
     <t>CA$ 525.15</t>
   </si>
   <si>
-    <t>https://www.revolve.com/alpha-industries-ma1-blood-chit-bomber-jacket-in-sage/dp/ALPF-MO2/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_13</t>
+    <t>https://www.revolve.com/alpha-industries-ma1-blood-chit-bomber-jacket-in-sage/dp/ALPF-MO2/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_14</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/HLAN-MO66_V1.jpg</t>
@@ -245,10 +263,10 @@
     <t>CA$ 389.88</t>
   </si>
   <si>
-    <t>https://www.revolve.com/helmut-lang-seatbelt-blazer-in-black-pink/dp/HLAN-MO66/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_14</t>
+    <t>https://www.revolve.com/helmut-lang-seatbelt-blazer-in-black-pink/dp/HLAN-MO66/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_15</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LPAR-WO168M_V1.jpg</t>
@@ -260,10 +278,10 @@
     <t>Snap Front Pullover</t>
   </si>
   <si>
-    <t>https://www.revolve.com/lpa-snap-front-pullover-in-dark-green/dp/LPAR-WO168/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_15</t>
+    <t>https://www.revolve.com/lpa-snap-front-pullover-in-dark-green/dp/LPAR-WO168/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_16</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/DKEF-MO1M_V1.jpg</t>
@@ -275,58 +293,58 @@
     <t>Unlined Eisenhower Jacket</t>
   </si>
   <si>
+    <t>https://www.revolve.com/dickies-unlined-eisenhower-jacket-in-dark-navy/dp/DKEF-MO1/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_17</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALPF-MO64M_V1.jpg</t>
+  </si>
+  <si>
+    <t>MA-1 Slim Fit</t>
+  </si>
+  <si>
     <t>CA$ 413.75</t>
   </si>
   <si>
-    <t>https://www.revolve.com/dickies-unlined-eisenhower-jacket-in-dark-navy/dp/DKEF-MO1/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_16</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALPF-MO64M_V1.jpg</t>
-  </si>
-  <si>
-    <t>MA-1 Slim Fit</t>
+    <t>https://www.revolve.com/alpha-industries-ma1-slim-fit-in-sage/dp/ALPF-MO64/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_18</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MO23_V1.jpg</t>
+  </si>
+  <si>
+    <t>Sova Jacket</t>
   </si>
   <si>
     <t>CA$ 167.17</t>
   </si>
   <si>
-    <t>https://www.revolve.com/alpha-industries-ma1-slim-fit-in-sage/dp/ALPF-MO64/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_17</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MO23_V1.jpg</t>
-  </si>
-  <si>
-    <t>Sova Jacket</t>
+    <t>https://www.revolve.com/allsaints-sova-jacket-in-anthracite-grey/dp/ALLR-MO23/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MO170M_V1.jpg</t>
+  </si>
+  <si>
+    <t>The North Face</t>
+  </si>
+  <si>
+    <t>1996 Retro Nuptse Jacket</t>
   </si>
   <si>
     <t>CA$ 946.86</t>
   </si>
   <si>
-    <t>https://www.revolve.com/allsaints-sova-jacket-in-anthracite-grey/dp/ALLR-MO23/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_18</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MO170M_V1.jpg</t>
-  </si>
-  <si>
-    <t>The North Face</t>
-  </si>
-  <si>
-    <t>1996 Retro Nuptse Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/the-north-face-1996-retro-nuptse-jacket-in-coal-brown-tnf-black/dp/TACF-MO170/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_19</t>
+    <t>https://www.revolve.com/the-north-face-1996-retro-nuptse-jacket-in-coal-brown-tnf-black/dp/TACF-MO170/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_20</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MO52_V1.jpg</t>
@@ -338,25 +356,25 @@
     <t>Robby Denim Jacket</t>
   </si>
   <si>
+    <t>https://www.revolve.com/nudie-jeans-robby-denim-jacket-in-blue/dp/NUDI-MO52/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MO27_V1.jpg</t>
+  </si>
+  <si>
+    <t>Cora Jacket</t>
+  </si>
+  <si>
     <t>CA$ 175.05</t>
   </si>
   <si>
-    <t>https://www.revolve.com/nudie-jeans-robby-denim-jacket-in-blue/dp/NUDI-MO52/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_20</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MO27_V1.jpg</t>
-  </si>
-  <si>
-    <t>Cora Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/allsaints-cora-jacket-in-spliter-brown/dp/ALLR-MO27/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_21</t>
+    <t>https://www.revolve.com/allsaints-cora-jacket-in-spliter-brown/dp/ALLR-MO27/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_22</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ALPF-MO13M_V1.jpg</t>
@@ -365,13 +383,25 @@
     <t>MA-1 Blood Chit Bomber</t>
   </si>
   <si>
+    <t>https://www.revolve.com/alpha-industries-ma1-blood-chit-bomber-in-black/dp/ALPF-MO13/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_23</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MO22_V1.jpg</t>
+  </si>
+  <si>
+    <t>Bi-swing Windbreaker</t>
+  </si>
+  <si>
     <t>CA$ 1,391.77</t>
   </si>
   <si>
-    <t>https://www.revolve.com/alpha-industries-ma1-blood-chit-bomber-in-black/dp/ALPF-MO13/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_22</t>
+    <t>https://www.revolve.com/polo-ralph-lauren-biswing-windbreaker-in-french-navy/dp/PLAU-MO22/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_24</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MO116_V1.jpg</t>
@@ -383,10 +413,10 @@
     <t>CA$ 238.70</t>
   </si>
   <si>
-    <t>https://www.revolve.com/the-north-face-86-retro-mountain-jacket-in-tnf-black/dp/TACF-MO116/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_23</t>
+    <t>https://www.revolve.com/the-north-face-86-retro-mountain-jacket-in-tnf-black/dp/TACF-MO116/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_25</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-MO14_V1.jpg</t>
@@ -398,166 +428,178 @@
     <t>Relaxed Fit Trucker Jacket</t>
   </si>
   <si>
+    <t>https://www.revolve.com/levis-relaxed-fit-trucker-jacket-in-superior/dp/LEIV-MO14/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MO2_V1.jpg</t>
+  </si>
+  <si>
+    <t>Lark Leather Jacket</t>
+  </si>
+  <si>
     <t>CA$ 200.28</t>
   </si>
   <si>
-    <t>https://www.revolve.com/levis-relaxed-fit-trucker-jacket-in-superior/dp/LEIV-MO14/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_24</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MO2_V1.jpg</t>
-  </si>
-  <si>
-    <t>Lark Leather Jacket</t>
+    <t>https://www.revolve.com/allsaints-lark-leather-jacket-in-black/dp/ALLR-MO2/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/THEO-MO88_V1.jpg</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Chambers Jacket</t>
   </si>
   <si>
     <t>CA$ 203.70</t>
   </si>
   <si>
-    <t>https://www.revolve.com/allsaints-lark-leather-jacket-in-black/dp/ALLR-MO2/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_25</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/THEO-MO88_V1.jpg</t>
-  </si>
-  <si>
-    <t>Theory</t>
-  </si>
-  <si>
-    <t>Chambers Jacket</t>
+    <t>https://www.revolve.com/theory-chambers-jacket-in-sand-melange/dp/THEO-MO88/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_28</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ISAB-MO27_V1.jpg</t>
+  </si>
+  <si>
+    <t>Isabel Marant</t>
+  </si>
+  <si>
+    <t>Watson Modern Jacket</t>
   </si>
   <si>
     <t>CA$ 739.98</t>
   </si>
   <si>
-    <t>https://www.revolve.com/theory-chambers-jacket-in-sand-melange/dp/THEO-MO88/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_26</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ISAB-MO27_V1.jpg</t>
-  </si>
-  <si>
-    <t>Isabel Marant</t>
-  </si>
-  <si>
-    <t>Watson Modern Jacket</t>
+    <t>https://www.revolve.com/isabel-marant-watson-modern-jacket-in-burgundy/dp/ISAB-MO27/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_29</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/GORI-MO5_V1.jpg</t>
+  </si>
+  <si>
+    <t>Guess Originals</t>
+  </si>
+  <si>
+    <t>Ivan Letterman Jacket</t>
   </si>
   <si>
     <t>CA$ 286.45</t>
   </si>
   <si>
-    <t>https://www.revolve.com/isabel-marant-watson-modern-jacket-in-burgundy/dp/ISAB-MO27/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_27</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/GORI-MO5_V1.jpg</t>
-  </si>
-  <si>
-    <t>Guess Originals</t>
-  </si>
-  <si>
-    <t>Ivan Letterman Jacket</t>
+    <t>https://www.revolve.com/guess-originals-ivan-letterman-jacket-in-uniform-blue/dp/GORI-MO5/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_30</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/DIEF-MO13_V1.jpg</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Carl Zip Jacket</t>
   </si>
   <si>
     <t>CA$ 445.58</t>
   </si>
   <si>
-    <t>https://www.revolve.com/guess-originals-ivan-letterman-jacket-in-uniform-blue/dp/GORI-MO5/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_28</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/DIEF-MO13_V1.jpg</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>Carl Zip Jacket</t>
+    <t>https://www.revolve.com/diesel-carl-zip-jacket-in-grey/dp/DIEF-MO13/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SCIR-MO1_V1.jpg</t>
+  </si>
+  <si>
+    <t>SCI-FI FANTASY</t>
+  </si>
+  <si>
+    <t>Sci-Fi Chore Coat</t>
   </si>
   <si>
     <t>CA$ 1,289.93</t>
   </si>
   <si>
-    <t>https://www.revolve.com/diesel-carl-zip-jacket-in-grey/dp/DIEF-MO13/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_29</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SCIR-MO1_V1.jpg</t>
-  </si>
-  <si>
-    <t>SCI-FI FANTASY</t>
-  </si>
-  <si>
-    <t>Sci-Fi Chore Coat</t>
+    <t>https://www.revolve.com/scifi-fantasy-scifi-chore-coat-in-navy/dp/SCIR-MO1/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_32</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MO179_V1.jpg</t>
+  </si>
+  <si>
+    <t>M66 Utility Rain Jacket</t>
   </si>
   <si>
     <t>CA$ 474.23</t>
   </si>
   <si>
-    <t>https://www.revolve.com/scifi-fantasy-scifi-chore-coat-in-navy/dp/SCIR-MO1/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_30</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MO179_V1.jpg</t>
-  </si>
-  <si>
-    <t>M66 Utility Rain Jacket</t>
+    <t>https://www.revolve.com/the-north-face-m66-utility-rain-jacket-in-tnf-black/dp/TACF-MO179/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_33</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SCHF-MO46_V1.jpg</t>
+  </si>
+  <si>
+    <t>NYC Cafe Racer Jacket</t>
   </si>
   <si>
     <t>CA$ 187.79</t>
   </si>
   <si>
-    <t>https://www.revolve.com/the-north-face-m66-utility-rain-jacket-in-tnf-black/dp/TACF-MO179/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_31</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SCHF-MO46_V1.jpg</t>
-  </si>
-  <si>
-    <t>NYC Cafe Racer Jacket</t>
+    <t>https://www.revolve.com/schott-nyc-cafe-racer-jacket-in-brown/dp/SCHF-MO46/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/TILL-MO7_V1.jpg</t>
+  </si>
+  <si>
+    <t>THRILLS</t>
+  </si>
+  <si>
+    <t>Minimal Thrills Work Jacket</t>
   </si>
   <si>
     <t>CA$ 867.29</t>
   </si>
   <si>
-    <t>https://www.revolve.com/schott-nyc-cafe-racer-jacket-in-brown/dp/SCHF-MO46/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_32</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/TILL-MO7_V1.jpg</t>
-  </si>
-  <si>
-    <t>THRILLS</t>
-  </si>
-  <si>
-    <t>Minimal Thrills Work Jacket</t>
+    <t>https://www.revolve.com/thrills-minimal-thrills-work-jacket-in-aloe/dp/TILL-MO7/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MO20_V1.jpg</t>
+  </si>
+  <si>
+    <t>Bi-swing Windbreaker Jacket</t>
   </si>
   <si>
     <t>CA$ 1,351.03</t>
   </si>
   <si>
-    <t>https://www.revolve.com/thrills-minimal-thrills-work-jacket-in-aloe/dp/TILL-MO7/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_33</t>
+    <t>https://www.revolve.com/polo-ralph-lauren-biswing-windbreaker-jacket-in-rl-black/dp/PLAU-MO20/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_36</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MS97_V1.jpg</t>
@@ -569,10 +611,10 @@
     <t>Resonate Overshirt</t>
   </si>
   <si>
-    <t>https://www.revolve.com/pleasures-resonate-overshirt-in-black/dp/PLSU-MS97/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_34</t>
+    <t>https://www.revolve.com/pleasures-resonate-overshirt-in-black/dp/PLSU-MS97/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_37</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/GORI-MO6_V1.jpg</t>
@@ -584,10 +626,10 @@
     <t>CA$ 1,110.78</t>
   </si>
   <si>
-    <t>https://www.revolve.com/guess-originals-work-jacket-in-printed-cowboy-tan/dp/GORI-MO6/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_35</t>
+    <t>https://www.revolve.com/guess-originals-work-jacket-in-printed-cowboy-tan/dp/GORI-MO6/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_38</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/THEO-MO87_V1.jpg</t>
@@ -599,10 +641,10 @@
     <t>CA$ 151.70</t>
   </si>
   <si>
-    <t>https://www.revolve.com/theory-varsity-jacket-in-navy/dp/THEO-MO87/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_36</t>
+    <t>https://www.revolve.com/theory-varsity-jacket-in-navy/dp/THEO-MO87/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_39</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MO16_V1.jpg</t>
@@ -614,10 +656,10 @@
     <t>CA$ 1,120.20</t>
   </si>
   <si>
-    <t>https://www.revolve.com/pleasures-smoke-knitted-varsity-jacket-in-black/dp/PLSU-MO16/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_37</t>
+    <t>https://www.revolve.com/pleasures-smoke-knitted-varsity-jacket-in-black/dp/PLSU-MO16/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_40</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MO54_V1.jpg</t>
@@ -629,55 +671,7 @@
     <t>CA$ 556.98</t>
   </si>
   <si>
-    <t>https://www.revolve.com/nudie-jeans-howie-waxed-chore-jacket-in-brown/dp/NUDI-MO54/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_38</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SCHF-MO22_V1.jpg</t>
-  </si>
-  <si>
-    <t>Collar Lamb Leather Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 205.29</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/schott-collar-lamb-leather-jacket-in-black/dp/SCHF-MO22/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_39</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/DIEF-MO3_V1.jpg</t>
-  </si>
-  <si>
-    <t>Spark Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 237.13</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/diesel-spark-jacket-in-brown/dp/DIEF-MO3/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_40</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/RAIL-MO25_V1.jpg</t>
-  </si>
-  <si>
-    <t>Rails</t>
-  </si>
-  <si>
-    <t>Idris Blazer</t>
-  </si>
-  <si>
-    <t>CA$ 103.71</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/rails-idris-blazer-in-navy-melange/dp/RAIL-MO25/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/nudie-jeans-howie-waxed-chore-jacket-in-brown/dp/NUDI-MO54/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -776,47 +770,47 @@
         <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>25</v>
@@ -916,47 +910,47 @@
         <v>53</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>36</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>64</v>
@@ -976,27 +970,27 @@
         <v>68</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>75</v>
@@ -1022,27 +1016,27 @@
         <v>81</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>88</v>
@@ -1056,13 +1050,13 @@
         <v>90</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s" s="0">
         <v>93</v>
@@ -1076,7 +1070,7 @@
         <v>95</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>96</v>
@@ -1096,13 +1090,13 @@
         <v>100</v>
       </c>
       <c r="C19" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="E19" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>54</v>
       </c>
       <c r="F19" t="s" s="0">
         <v>103</v>
@@ -1136,53 +1130,53 @@
         <v>111</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>123</v>
@@ -1196,356 +1190,356 @@
         <v>125</v>
       </c>
       <c r="C24" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s" s="0">
         <v>126</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="E24" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="F24" t="s" s="0">
         <v>128</v>
-      </c>
-      <c r="F24" t="s" s="0">
-        <v>129</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="C25" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="D25" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="C25" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="D25" t="s" s="0">
+      <c r="E25" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="F25" t="s" s="0">
         <v>133</v>
-      </c>
-      <c r="F25" t="s" s="0">
-        <v>134</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="B26" t="s" s="0">
+      <c r="C26" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="C26" t="s" s="0">
+      <c r="D26" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="D26" t="s" s="0">
+      <c r="E26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="0">
         <v>138</v>
-      </c>
-      <c r="E26" t="s" s="0">
-        <v>139</v>
-      </c>
-      <c r="F26" t="s" s="0">
-        <v>140</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D27" t="s" s="0">
         <v>141</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="E27" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="F27" t="s" s="0">
         <v>143</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>145</v>
-      </c>
-      <c r="F27" t="s" s="0">
-        <v>146</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="E28" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="F28" t="s" s="0">
         <v>149</v>
-      </c>
-      <c r="D28" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="F28" t="s" s="0">
-        <v>152</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="D29" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="B29" t="s" s="0">
+      <c r="E29" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="C29" t="s" s="0">
+      <c r="F29" t="s" s="0">
         <v>155</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>156</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>157</v>
-      </c>
-      <c r="F29" t="s" s="0">
-        <v>158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D30" t="s" s="0">
         <v>159</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="E30" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="F30" t="s" s="0">
         <v>161</v>
-      </c>
-      <c r="D30" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="F30" t="s" s="0">
-        <v>164</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="D31" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="E31" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="C31" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="D31" t="s" s="0">
+      <c r="F31" t="s" s="0">
         <v>167</v>
-      </c>
-      <c r="E31" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="F31" t="s" s="0">
-        <v>169</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C32" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="D32" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="C32" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D32" t="s" s="0">
+      <c r="E32" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="F32" t="s" s="0">
         <v>173</v>
-      </c>
-      <c r="F32" t="s" s="0">
-        <v>174</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="C33" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="D33" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="C33" t="s" s="0">
+      <c r="E33" t="s" s="0">
         <v>177</v>
       </c>
-      <c r="D33" t="s" s="0">
+      <c r="F33" t="s" s="0">
         <v>178</v>
-      </c>
-      <c r="E33" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="F33" t="s" s="0">
-        <v>180</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="E34" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="C34" t="s" s="0">
+      <c r="F34" t="s" s="0">
         <v>183</v>
-      </c>
-      <c r="D34" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="E34" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>185</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C35" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="D35" t="s" s="0">
         <v>187</v>
       </c>
-      <c r="C35" t="s" s="0">
-        <v>149</v>
-      </c>
-      <c r="D35" t="s" s="0">
+      <c r="E35" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="E35" t="s" s="0">
+      <c r="F35" t="s" s="0">
         <v>189</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>190</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B36" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="C36" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="C36" t="s" s="0">
-        <v>137</v>
-      </c>
-      <c r="D36" t="s" s="0">
+      <c r="E36" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="E36" t="s" s="0">
+      <c r="F36" t="s" s="0">
         <v>194</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>195</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B37" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="C37" t="s" s="0">
         <v>197</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>183</v>
       </c>
       <c r="D37" t="s" s="0">
         <v>198</v>
       </c>
       <c r="E37" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="F37" t="s" s="0">
         <v>199</v>
-      </c>
-      <c r="F37" t="s" s="0">
-        <v>200</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B38" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="C38" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D38" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="C38" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="D38" t="s" s="0">
+      <c r="E38" t="s" s="0">
         <v>203</v>
       </c>
-      <c r="E38" t="s" s="0">
+      <c r="F38" t="s" s="0">
         <v>204</v>
-      </c>
-      <c r="F38" t="s" s="0">
-        <v>205</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="C39" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="D39" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="C39" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s" s="0">
+      <c r="E39" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="E39" t="s" s="0">
+      <c r="F39" t="s" s="0">
         <v>209</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>210</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>211</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="C40" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="D40" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="C40" t="s" s="0">
-        <v>155</v>
-      </c>
-      <c r="D40" t="s" s="0">
+      <c r="E40" t="s" s="0">
         <v>213</v>
       </c>
-      <c r="E40" t="s" s="0">
+      <c r="F40" t="s" s="0">
         <v>214</v>
-      </c>
-      <c r="F40" t="s" s="0">
-        <v>215</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B41" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="C41" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>217</v>
       </c>
-      <c r="C41" t="s" s="0">
+      <c r="E41" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="D41" t="s" s="0">
+      <c r="F41" t="s" s="0">
         <v>219</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>220</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/menRevolveCoat.xlsx
+++ b/src/main/resources/menRevolveCoat.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="218">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,21 @@
     <t>men_revolve_coat_2</t>
   </si>
   <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WO1M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Varsity Bomber</t>
+  </si>
+  <si>
+    <t>CA$ 453.54</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/beverly-hills-x-revolve-varsity-bomber-in-black-white/dp/BEVR-WO1/?d=Mens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_3</t>
+  </si>
+  <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MO21_V1.jpg</t>
   </si>
   <si>
@@ -62,25 +77,10 @@
     <t>Bi-Swing Windbreaker Jacket</t>
   </si>
   <si>
-    <t>CA$ 453.54</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-biswing-windbreaker-jacket-in-khaki-uniform/dp/PLAU-MO21/?d=Mens&amp;page=1&amp;lc=2&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_3</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/BEVR-WO1M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Varsity Bomber</t>
-  </si>
-  <si>
     <t>CA$ 1,323.87</t>
   </si>
   <si>
-    <t>https://www.revolve.com/beverly-hills-x-revolve-varsity-bomber-in-black-white/dp/BEVR-WO1/?d=Mens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/polo-ralph-lauren-biswing-windbreaker-jacket-in-khaki-uniform/dp/PLAU-MO21/?d=Mens&amp;page=1&amp;lc=3&amp;itrownum=1&amp;itcurrpage=1&amp;itview=05</t>
   </si>
   <si>
     <t>men_revolve_coat_4</t>
@@ -110,112 +110,163 @@
     <t>Oversized Double Breasted Jacket</t>
   </si>
   <si>
+    <t>CA$ 318.27</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/norma-kamali-oversized-double-breasted-jacket-in-black/dp/NKAM-WO112/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_6</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/WIME-MO3M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Wish Me Luck</t>
+  </si>
+  <si>
+    <t>Cropped League Bomber Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 525.15</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/wish-me-luck-cropped-league-bomber-jacket-in-brown/dp/WIME-MO3/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_7</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MO153_V1.jpg</t>
+  </si>
+  <si>
+    <t>OFF-WHITE</t>
+  </si>
+  <si>
+    <t>Tyre Moon Lea Varsity Jacket</t>
+  </si>
+  <si>
     <t>CA$ 3,158.86</t>
   </si>
   <si>
-    <t>https://www.revolve.com/norma-kamali-oversized-double-breasted-jacket-in-black/dp/NKAM-WO112/?d=Mens&amp;page=1&amp;lc=5&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_6</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MO153_V1.jpg</t>
-  </si>
-  <si>
-    <t>OFF-WHITE</t>
-  </si>
-  <si>
-    <t>Tyre Moon Lea Varsity Jacket</t>
+    <t>https://www.revolve.com/offwhite-tyre-moon-lea-varsity-jacket-in-black/dp/OFFF-MO153/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_8</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SCHF-MO32_V1.jpg</t>
+  </si>
+  <si>
+    <t>Schott</t>
+  </si>
+  <si>
+    <t>Waxed Natural Pebbled Cowhide Cafe Leather Jacket</t>
   </si>
   <si>
     <t>CA$ 437.63</t>
   </si>
   <si>
-    <t>https://www.revolve.com/offwhite-tyre-moon-lea-varsity-jacket-in-black/dp/OFFF-MO153/?d=Mens&amp;page=1&amp;lc=6&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_7</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/WIME-MO3M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Wish Me Luck</t>
-  </si>
-  <si>
-    <t>Cropped League Bomber Jacket</t>
+    <t>https://www.revolve.com/schott-waxed-natural-pebbled-cowhide-cafe-leather-jacket-in-black/dp/SCHF-MO32/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_9</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALPF-MO35M_V1.jpg</t>
+  </si>
+  <si>
+    <t>ALPHA INDUSTRIES</t>
+  </si>
+  <si>
+    <t>ALS/92 Liner</t>
+  </si>
+  <si>
+    <t>CA$ 122.29</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/alpha-industries-als92-liner-in-black/dp/ALPF-MO35/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_10</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALPF-MO64M_V1.jpg</t>
+  </si>
+  <si>
+    <t>MA-1 Slim Fit</t>
   </si>
   <si>
     <t>CA$ 799.51</t>
   </si>
   <si>
-    <t>https://www.revolve.com/wish-me-luck-cropped-league-bomber-jacket-in-brown/dp/WIME-MO3/?d=Mens&amp;page=1&amp;lc=7&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_8</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SCHF-MO32_V1.jpg</t>
-  </si>
-  <si>
-    <t>Schott</t>
-  </si>
-  <si>
-    <t>Waxed Natural Pebbled Cowhide Cafe Leather Jacket</t>
+    <t>https://www.revolve.com/alpha-industries-ma1-slim-fit-in-sage/dp/ALPF-MO64/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_11</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MO170M_V1.jpg</t>
+  </si>
+  <si>
+    <t>The North Face</t>
+  </si>
+  <si>
+    <t>1996 Retro Nuptse Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 362.84</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/the-north-face-1996-retro-nuptse-jacket-in-coal-brown-tnf-black/dp/TACF-MO170/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_12</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MO157_V1.jpg</t>
+  </si>
+  <si>
+    <t>CA$ 1,265.14</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/offwhite-varsity-bomber-in-black-white/dp/OFFF-MO157/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_13</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/WIME-MO1M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Studded Denim Jacket</t>
   </si>
   <si>
     <t>CA$ 358.36</t>
   </si>
   <si>
-    <t>https://www.revolve.com/schott-waxed-natural-pebbled-cowhide-cafe-leather-jacket-in-black/dp/SCHF-MO32/?d=Mens&amp;page=1&amp;lc=8&amp;itrownum=2&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_9</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALPF-MO35M_V1.jpg</t>
-  </si>
-  <si>
-    <t>ALPHA INDUSTRIES</t>
-  </si>
-  <si>
-    <t>ALS/92 Liner</t>
-  </si>
-  <si>
-    <t>CA$ 1,265.14</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/alpha-industries-als92-liner-in-black/dp/ALPF-MO35/?d=Mens&amp;page=1&amp;lc=9&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_10</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/OFFF-MO157_V1.jpg</t>
-  </si>
-  <si>
-    <t>CA$ 362.84</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/offwhite-varsity-bomber-in-black-white/dp/OFFF-MO157/?d=Mens&amp;page=1&amp;lc=10&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_11</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/WIME-MO1M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Studded Denim Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 122.29</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/wish-me-luck-studded-denim-jacket-in-denim/dp/WIME-MO1/?d=Mens&amp;page=1&amp;lc=11&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_12</t>
+    <t>https://www.revolve.com/wish-me-luck-studded-denim-jacket-in-denim/dp/WIME-MO1/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_14</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/DKEF-MO1M_V1.jpg</t>
+  </si>
+  <si>
+    <t>Dickies</t>
+  </si>
+  <si>
+    <t>Unlined Eisenhower Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 1,120.20</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/dickies-unlined-eisenhower-jacket-in-dark-navy/dp/DKEF-MO1/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_15</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MS257_V1.jpg</t>
@@ -227,13 +278,43 @@
     <t>Ethan Shirt</t>
   </si>
   <si>
-    <t>CA$ 318.27</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/allsaints-ethan-shirt-in-black/dp/ALLR-MS257/?d=Mens&amp;page=1&amp;lc=12&amp;itrownum=3&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_13</t>
+    <t>https://www.revolve.com/allsaints-ethan-shirt-in-black/dp/ALLR-MS257/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_16</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LPAR-WO168M_V1.jpg</t>
+  </si>
+  <si>
+    <t>LPA</t>
+  </si>
+  <si>
+    <t>Snap Front Pullover</t>
+  </si>
+  <si>
+    <t>CA$ 389.88</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/lpa-snap-front-pullover-in-dark-green/dp/LPAR-WO168/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_17</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/HLAN-MO66_V1.jpg</t>
+  </si>
+  <si>
+    <t>Helmut Lang</t>
+  </si>
+  <si>
+    <t>Seatbelt Blazer</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/helmut-lang-seatbelt-blazer-in-black-pink/dp/HLAN-MO66/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_18</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ALPF-MO2M_V1.jpg</t>
@@ -242,76 +323,73 @@
     <t>MA-1 Blood Chit Bomber Jacket</t>
   </si>
   <si>
-    <t>CA$ 525.15</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/alpha-industries-ma1-blood-chit-bomber-jacket-in-sage/dp/ALPF-MO2/?d=Mens&amp;page=1&amp;lc=13&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_14</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/HLAN-MO66_V1.jpg</t>
-  </si>
-  <si>
-    <t>Helmut Lang</t>
-  </si>
-  <si>
-    <t>Seatbelt Blazer</t>
-  </si>
-  <si>
-    <t>CA$ 389.88</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/helmut-lang-seatbelt-blazer-in-black-pink/dp/HLAN-MO66/?d=Mens&amp;page=1&amp;lc=14&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_15</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LPAR-WO168M_V1.jpg</t>
-  </si>
-  <si>
-    <t>LPA</t>
-  </si>
-  <si>
-    <t>Snap Front Pullover</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/lpa-snap-front-pullover-in-dark-green/dp/LPAR-WO168/?d=Mens&amp;page=1&amp;lc=15&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_16</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/DKEF-MO1M_V1.jpg</t>
-  </si>
-  <si>
-    <t>Dickies</t>
-  </si>
-  <si>
-    <t>Unlined Eisenhower Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/dickies-unlined-eisenhower-jacket-in-dark-navy/dp/DKEF-MO1/?d=Mens&amp;page=1&amp;lc=16&amp;itrownum=4&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_17</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALPF-MO64M_V1.jpg</t>
-  </si>
-  <si>
-    <t>MA-1 Slim Fit</t>
-  </si>
-  <si>
     <t>CA$ 413.75</t>
   </si>
   <si>
-    <t>https://www.revolve.com/alpha-industries-ma1-slim-fit-in-sage/dp/ALPF-MO64/?d=Mens&amp;page=1&amp;lc=17&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_18</t>
+    <t>https://www.revolve.com/alpha-industries-ma1-blood-chit-bomber-jacket-in-sage/dp/ALPF-MO2/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_19</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SCHF-MO3_V1.jpg</t>
+  </si>
+  <si>
+    <t>Cafecto Steerhide Hybrid Cafe Racer</t>
+  </si>
+  <si>
+    <t>CA$ 1,351.03</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/schott-cafecto-steerhide-hybrid-cafe-racer-in-black/dp/SCHF-MO3/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_20</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MO2_V1.jpg</t>
+  </si>
+  <si>
+    <t>Lark Leather Jacket</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/allsaints-lark-leather-jacket-in-black/dp/ALLR-MO2/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_21</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALPF-MO13M_V1.jpg</t>
+  </si>
+  <si>
+    <t>MA-1 Blood Chit Bomber</t>
+  </si>
+  <si>
+    <t>CA$ 1,289.93</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/alpha-industries-ma1-blood-chit-bomber-in-black/dp/ALPF-MO13/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_22</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/DIEF-MO13_V1.jpg</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Carl Zip Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 167.17</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/diesel-carl-zip-jacket-in-grey/dp/DIEF-MO13/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_23</t>
   </si>
   <si>
     <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MO23_V1.jpg</t>
@@ -320,358 +398,274 @@
     <t>Sova Jacket</t>
   </si>
   <si>
-    <t>CA$ 167.17</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/allsaints-sova-jacket-in-anthracite-grey/dp/ALLR-MO23/?d=Mens&amp;page=1&amp;lc=18&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_19</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MO170M_V1.jpg</t>
-  </si>
-  <si>
-    <t>The North Face</t>
-  </si>
-  <si>
-    <t>1996 Retro Nuptse Jacket</t>
+    <t>CA$ 1,391.77</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/allsaints-sova-jacket-in-anthracite-grey/dp/ALLR-MO23/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_24</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MO27_V1.jpg</t>
+  </si>
+  <si>
+    <t>Cora Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 445.58</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/allsaints-cora-jacket-in-spliter-brown/dp/ALLR-MO27/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_25</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MO52_V1.jpg</t>
+  </si>
+  <si>
+    <t>Nudie Jeans</t>
+  </si>
+  <si>
+    <t>Robby Denim Jacket</t>
   </si>
   <si>
     <t>CA$ 946.86</t>
   </si>
   <si>
-    <t>https://www.revolve.com/the-north-face-1996-retro-nuptse-jacket-in-coal-brown-tnf-black/dp/TACF-MO170/?d=Mens&amp;page=1&amp;lc=19&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_20</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MO52_V1.jpg</t>
-  </si>
-  <si>
-    <t>Nudie Jeans</t>
-  </si>
-  <si>
-    <t>Robby Denim Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-robby-denim-jacket-in-blue/dp/NUDI-MO52/?d=Mens&amp;page=1&amp;lc=20&amp;itrownum=5&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_21</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MO27_V1.jpg</t>
-  </si>
-  <si>
-    <t>Cora Jacket</t>
+    <t>https://www.revolve.com/nudie-jeans-robby-denim-jacket-in-blue/dp/NUDI-MO52/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_26</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MO179_V1.jpg</t>
+  </si>
+  <si>
+    <t>M66 Utility Rain Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 286.45</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/the-north-face-m66-utility-rain-jacket-in-tnf-black/dp/TACF-MO179/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_27</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MO116_V1.jpg</t>
+  </si>
+  <si>
+    <t>86 Retro Mountain Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 200.28</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/the-north-face-86-retro-mountain-jacket-in-tnf-black/dp/TACF-MO116/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_28</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/THEO-MO80_V1.jpg</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Flight Bomber</t>
+  </si>
+  <si>
+    <t>CA$ 953.23</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/theory-flight-bomber-in-baltic/dp/THEO-MO80/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_29</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SCHF-MO4_V1.jpg</t>
+  </si>
+  <si>
+    <t>Vintage Fit Moto Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 1,126.99</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/schott-vintage-fit-moto-jacket-in-black/dp/SCHF-MO4/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_30</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MO22_V1.jpg</t>
+  </si>
+  <si>
+    <t>Bi-swing Windbreaker</t>
+  </si>
+  <si>
+    <t>CA$ 540.41</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/polo-ralph-lauren-biswing-windbreaker-in-french-navy/dp/PLAU-MO22/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_31</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ISAB-MO27_V1.jpg</t>
+  </si>
+  <si>
+    <t>Isabel Marant</t>
+  </si>
+  <si>
+    <t>Watson Modern Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 1,285.83</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/isabel-marant-watson-modern-jacket-in-burgundy/dp/ISAB-MO27/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_32</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SCHF-MO22_V1.jpg</t>
+  </si>
+  <si>
+    <t>Collar Lamb Leather Jacket</t>
   </si>
   <si>
     <t>CA$ 175.05</t>
   </si>
   <si>
-    <t>https://www.revolve.com/allsaints-cora-jacket-in-spliter-brown/dp/ALLR-MO27/?d=Mens&amp;page=1&amp;lc=21&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_22</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALPF-MO13M_V1.jpg</t>
-  </si>
-  <si>
-    <t>MA-1 Blood Chit Bomber</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/alpha-industries-ma1-blood-chit-bomber-in-black/dp/ALPF-MO13/?d=Mens&amp;page=1&amp;lc=22&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_23</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MO22_V1.jpg</t>
-  </si>
-  <si>
-    <t>Bi-swing Windbreaker</t>
-  </si>
-  <si>
-    <t>CA$ 1,391.77</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-biswing-windbreaker-in-french-navy/dp/PLAU-MO22/?d=Mens&amp;page=1&amp;lc=23&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_24</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MO116_V1.jpg</t>
-  </si>
-  <si>
-    <t>86 Retro Mountain Jacket</t>
+    <t>https://www.revolve.com/schott-collar-lamb-leather-jacket-in-black/dp/SCHF-MO22/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_33</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-MO14_V1.jpg</t>
+  </si>
+  <si>
+    <t>LEVI'S</t>
+  </si>
+  <si>
+    <t>Relaxed Fit Trucker Jacket</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/levis-relaxed-fit-trucker-jacket-in-superior/dp/LEIV-MO14/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_34</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SCHF-MO46_V1.jpg</t>
+  </si>
+  <si>
+    <t>NYC Cafe Racer Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 1,242.41</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/schott-nyc-cafe-racer-jacket-in-brown/dp/SCHF-MO46/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_35</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MO54_V1.jpg</t>
+  </si>
+  <si>
+    <t>Howie Waxed Chore Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 366.01</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/nudie-jeans-howie-waxed-chore-jacket-in-brown/dp/NUDI-MO54/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_36</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/THEO-MO88_V1.jpg</t>
+  </si>
+  <si>
+    <t>Chambers Jacket</t>
+  </si>
+  <si>
+    <t>CA$ 1,201.48</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/theory-chambers-jacket-in-sand-melange/dp/THEO-MO88/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_37</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MO16_V1.jpg</t>
+  </si>
+  <si>
+    <t>Pleasures</t>
+  </si>
+  <si>
+    <t>Smoke Knitted Varsity Jacket</t>
   </si>
   <si>
     <t>CA$ 238.70</t>
   </si>
   <si>
-    <t>https://www.revolve.com/the-north-face-86-retro-mountain-jacket-in-tnf-black/dp/TACF-MO116/?d=Mens&amp;page=1&amp;lc=24&amp;itrownum=6&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_25</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/LEIV-MO14_V1.jpg</t>
-  </si>
-  <si>
-    <t>LEVI'S</t>
-  </si>
-  <si>
-    <t>Relaxed Fit Trucker Jacket</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/levis-relaxed-fit-trucker-jacket-in-superior/dp/LEIV-MO14/?d=Mens&amp;page=1&amp;lc=25&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_26</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MO2_V1.jpg</t>
-  </si>
-  <si>
-    <t>Lark Leather Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 200.28</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/allsaints-lark-leather-jacket-in-black/dp/ALLR-MO2/?d=Mens&amp;page=1&amp;lc=26&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_27</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/THEO-MO88_V1.jpg</t>
-  </si>
-  <si>
-    <t>Theory</t>
-  </si>
-  <si>
-    <t>Chambers Jacket</t>
+    <t>https://www.revolve.com/pleasures-smoke-knitted-varsity-jacket-in-black/dp/PLSU-MO16/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_38</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MS97_V1.jpg</t>
+  </si>
+  <si>
+    <t>Resonate Overshirt</t>
+  </si>
+  <si>
+    <t>CA$ 739.98</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/pleasures-resonate-overshirt-in-black/dp/PLSU-MS97/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_39</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/ALLR-MO11_V1.jpg</t>
+  </si>
+  <si>
+    <t>Kemble Suede Bomber</t>
+  </si>
+  <si>
+    <t>https://www.revolve.com/allsaints-kemble-suede-bomber-in-soot-grey/dp/ALLR-MO11/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+  </si>
+  <si>
+    <t>men_revolve_coat_40</t>
+  </si>
+  <si>
+    <t>https://is4.revolveassets.com/images/p4/n/c/SCHF-MO31_V1.jpg</t>
+  </si>
+  <si>
+    <t>Waxy Buffalo Leather Sunset Jacket</t>
   </si>
   <si>
     <t>CA$ 203.70</t>
   </si>
   <si>
-    <t>https://www.revolve.com/theory-chambers-jacket-in-sand-melange/dp/THEO-MO88/?d=Mens&amp;page=1&amp;lc=27&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_28</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/ISAB-MO27_V1.jpg</t>
-  </si>
-  <si>
-    <t>Isabel Marant</t>
-  </si>
-  <si>
-    <t>Watson Modern Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 739.98</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/isabel-marant-watson-modern-jacket-in-burgundy/dp/ISAB-MO27/?d=Mens&amp;page=1&amp;lc=28&amp;itrownum=7&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_29</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/GORI-MO5_V1.jpg</t>
-  </si>
-  <si>
-    <t>Guess Originals</t>
-  </si>
-  <si>
-    <t>Ivan Letterman Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 286.45</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/guess-originals-ivan-letterman-jacket-in-uniform-blue/dp/GORI-MO5/?d=Mens&amp;page=1&amp;lc=29&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_30</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/DIEF-MO13_V1.jpg</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>Carl Zip Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 445.58</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/diesel-carl-zip-jacket-in-grey/dp/DIEF-MO13/?d=Mens&amp;page=1&amp;lc=30&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_31</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SCIR-MO1_V1.jpg</t>
-  </si>
-  <si>
-    <t>SCI-FI FANTASY</t>
-  </si>
-  <si>
-    <t>Sci-Fi Chore Coat</t>
-  </si>
-  <si>
-    <t>CA$ 1,289.93</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/scifi-fantasy-scifi-chore-coat-in-navy/dp/SCIR-MO1/?d=Mens&amp;page=1&amp;lc=31&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_32</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/TACF-MO179_V1.jpg</t>
-  </si>
-  <si>
-    <t>M66 Utility Rain Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 474.23</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/the-north-face-m66-utility-rain-jacket-in-tnf-black/dp/TACF-MO179/?d=Mens&amp;page=1&amp;lc=32&amp;itrownum=8&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_33</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/SCHF-MO46_V1.jpg</t>
-  </si>
-  <si>
-    <t>NYC Cafe Racer Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 187.79</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/schott-nyc-cafe-racer-jacket-in-brown/dp/SCHF-MO46/?d=Mens&amp;page=1&amp;lc=33&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_34</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/TILL-MO7_V1.jpg</t>
-  </si>
-  <si>
-    <t>THRILLS</t>
-  </si>
-  <si>
-    <t>Minimal Thrills Work Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 867.29</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/thrills-minimal-thrills-work-jacket-in-aloe/dp/TILL-MO7/?d=Mens&amp;page=1&amp;lc=34&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_35</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLAU-MO20_V1.jpg</t>
-  </si>
-  <si>
-    <t>Bi-swing Windbreaker Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 1,351.03</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/polo-ralph-lauren-biswing-windbreaker-jacket-in-rl-black/dp/PLAU-MO20/?d=Mens&amp;page=1&amp;lc=35&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_36</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MS97_V1.jpg</t>
-  </si>
-  <si>
-    <t>Pleasures</t>
-  </si>
-  <si>
-    <t>Resonate Overshirt</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/pleasures-resonate-overshirt-in-black/dp/PLSU-MS97/?d=Mens&amp;page=1&amp;lc=36&amp;itrownum=9&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_37</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/GORI-MO6_V1.jpg</t>
-  </si>
-  <si>
-    <t>Work Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 1,110.78</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/guess-originals-work-jacket-in-printed-cowboy-tan/dp/GORI-MO6/?d=Mens&amp;page=1&amp;lc=37&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_38</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/THEO-MO87_V1.jpg</t>
-  </si>
-  <si>
-    <t>Varsity Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 151.70</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/theory-varsity-jacket-in-navy/dp/THEO-MO87/?d=Mens&amp;page=1&amp;lc=38&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_39</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/PLSU-MO16_V1.jpg</t>
-  </si>
-  <si>
-    <t>Smoke Knitted Varsity Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 1,120.20</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/pleasures-smoke-knitted-varsity-jacket-in-black/dp/PLSU-MO16/?d=Mens&amp;page=1&amp;lc=39&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
-  </si>
-  <si>
-    <t>men_revolve_coat_40</t>
-  </si>
-  <si>
-    <t>https://is4.revolveassets.com/images/p4/n/c/NUDI-MO54_V1.jpg</t>
-  </si>
-  <si>
-    <t>Howie Waxed Chore Jacket</t>
-  </si>
-  <si>
-    <t>CA$ 556.98</t>
-  </si>
-  <si>
-    <t>https://www.revolve.com/nudie-jeans-howie-waxed-chore-jacket-in-brown/dp/NUDI-MO54/?d=Mens&amp;page=1&amp;lc=40&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
+    <t>https://www.revolve.com/schott-waxy-buffalo-leather-sunset-jacket-in-brown/dp/SCHF-MO31/?d=Mens&amp;page=1&amp;lc=41&amp;itrownum=10&amp;itcurrpage=1&amp;itview=05</t>
   </si>
 </sst>
 </file>
@@ -770,27 +764,27 @@
         <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="F3" t="s" s="0">
         <v>16</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="C4" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>8</v>
       </c>
       <c r="D4" t="s" s="0">
         <v>20</v>
@@ -930,50 +924,50 @@
         <v>59</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s" s="0">
         <v>71</v>
@@ -990,7 +984,7 @@
         <v>74</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>75</v>
@@ -1036,7 +1030,7 @@
         <v>87</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="0">
         <v>88</v>
@@ -1056,61 +1050,61 @@
         <v>92</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s" s="0">
         <v>107</v>
@@ -1130,187 +1124,187 @@
         <v>111</v>
       </c>
       <c r="C21" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="E21" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="F21" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B22" t="s" s="0">
+      <c r="C22" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="C22" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="D22" t="s" s="0">
+      <c r="E22" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="F22" t="s" s="0">
         <v>118</v>
-      </c>
-      <c r="F22" t="s" s="0">
-        <v>119</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="B23" t="s" s="0">
+      <c r="C23" t="s" s="0">
         <v>121</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>54</v>
       </c>
       <c r="D23" t="s" s="0">
         <v>122</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>158</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s" s="0">
         <v>159</v>
@@ -1330,216 +1324,216 @@
         <v>163</v>
       </c>
       <c r="C31" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="E31" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="E31" t="s" s="0">
+      <c r="F31" t="s" s="0">
         <v>166</v>
-      </c>
-      <c r="F31" t="s" s="0">
-        <v>167</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B32" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="B32" t="s" s="0">
+      <c r="C32" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="C32" t="s" s="0">
+      <c r="D32" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="D32" t="s" s="0">
+      <c r="E32" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="E32" t="s" s="0">
+      <c r="F32" t="s" s="0">
         <v>172</v>
-      </c>
-      <c r="F32" t="s" s="0">
-        <v>173</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B33" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="B33" t="s" s="0">
+      <c r="C33" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="C33" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="D33" t="s" s="0">
+      <c r="E33" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="E33" t="s" s="0">
+      <c r="F33" t="s" s="0">
         <v>177</v>
-      </c>
-      <c r="F33" t="s" s="0">
-        <v>178</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B34" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="B34" t="s" s="0">
+      <c r="C34" t="s" s="0">
         <v>180</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>48</v>
       </c>
       <c r="D34" t="s" s="0">
         <v>181</v>
       </c>
       <c r="E34" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F34" t="s" s="0">
         <v>182</v>
-      </c>
-      <c r="F34" t="s" s="0">
-        <v>183</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="B35" t="s" s="0">
+      <c r="C35" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="C35" t="s" s="0">
+      <c r="E35" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="D35" t="s" s="0">
+      <c r="F35" t="s" s="0">
         <v>187</v>
-      </c>
-      <c r="E35" t="s" s="0">
-        <v>188</v>
-      </c>
-      <c r="F35" t="s" s="0">
-        <v>189</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="D36" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B36" t="s" s="0">
+      <c r="E36" t="s" s="0">
         <v>191</v>
       </c>
-      <c r="C36" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s" s="0">
+      <c r="F36" t="s" s="0">
         <v>192</v>
-      </c>
-      <c r="E36" t="s" s="0">
-        <v>193</v>
-      </c>
-      <c r="F36" t="s" s="0">
-        <v>194</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="D37" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="B37" t="s" s="0">
+      <c r="E37" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="C37" t="s" s="0">
+      <c r="F37" t="s" s="0">
         <v>197</v>
-      </c>
-      <c r="D37" t="s" s="0">
-        <v>198</v>
-      </c>
-      <c r="E37" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="F37" t="s" s="0">
-        <v>199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="C38" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="B38" t="s" s="0">
+      <c r="D38" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="C38" t="s" s="0">
-        <v>158</v>
-      </c>
-      <c r="D38" t="s" s="0">
+      <c r="E38" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="E38" t="s" s="0">
+      <c r="F38" t="s" s="0">
         <v>203</v>
-      </c>
-      <c r="F38" t="s" s="0">
-        <v>204</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="B39" t="s" s="0">
+      <c r="C39" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="D39" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="C39" t="s" s="0">
-        <v>146</v>
-      </c>
-      <c r="D39" t="s" s="0">
+      <c r="E39" t="s" s="0">
         <v>207</v>
       </c>
-      <c r="E39" t="s" s="0">
+      <c r="F39" t="s" s="0">
         <v>208</v>
-      </c>
-      <c r="F39" t="s" s="0">
-        <v>209</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="B40" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="B40" t="s" s="0">
+      <c r="C40" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="D40" t="s" s="0">
         <v>211</v>
       </c>
-      <c r="C40" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="D40" t="s" s="0">
+      <c r="E40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s" s="0">
         <v>212</v>
-      </c>
-      <c r="E40" t="s" s="0">
-        <v>213</v>
-      </c>
-      <c r="F40" t="s" s="0">
-        <v>214</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="D41" t="s" s="0">
         <v>215</v>
       </c>
-      <c r="B41" t="s" s="0">
+      <c r="E41" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="C41" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="D41" t="s" s="0">
+      <c r="F41" t="s" s="0">
         <v>217</v>
-      </c>
-      <c r="E41" t="s" s="0">
-        <v>218</v>
-      </c>
-      <c r="F41" t="s" s="0">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
